--- a/I.Agroindustrial/HORARIOS ING_AGROINDUSTRIAL.xlsx
+++ b/I.Agroindustrial/HORARIOS ING_AGROINDUSTRIAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAE1311B-6C3B-42DD-9D61-F68F2C25BB29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23CDA361-57A0-4507-8BBF-5D557DB4A0FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="9" xr2:uid="{52CD51E4-B5E7-4EE9-97B5-A271D95154C6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="IX" sheetId="9" r:id="rId9"/>
     <sheet name="X" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="97">
   <si>
     <t>HORA</t>
   </si>
@@ -123,9 +123,6 @@
     <t>No. G</t>
   </si>
   <si>
-    <t>FC405</t>
-  </si>
-  <si>
     <t>CN329</t>
   </si>
   <si>
@@ -295,6 +292,39 @@
   </si>
   <si>
     <t>AI014</t>
+  </si>
+  <si>
+    <t>UPC04</t>
+  </si>
+  <si>
+    <t>UPC05</t>
+  </si>
+  <si>
+    <t>UPC06</t>
+  </si>
+  <si>
+    <t>UPC09</t>
+  </si>
+  <si>
+    <t>UPC07</t>
+  </si>
+  <si>
+    <t>grupo 4 y 5</t>
+  </si>
+  <si>
+    <t>grupo  4 y 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI350 </t>
+  </si>
+  <si>
+    <t>electiva : tec de la produccion; logistica II, Audito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electiva: Biofermentacion II, Reeproduccion de peces, tec de café </t>
+  </si>
+  <si>
+    <t>Logistica , sistemas integrados</t>
   </si>
 </sst>
 </file>
@@ -326,7 +356,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -532,11 +562,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -591,6 +662,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,10 +690,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -922,11 +1006,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB25AAA-D2BB-4E62-8CC7-02DE57045219}">
-  <dimension ref="A2:S22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:T217"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +1030,6 @@
     <col min="13" max="13" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P3" s="26" t="s">
         <v>27</v>
@@ -954,7 +1037,7 @@
       <c r="Q3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="26" t="s">
         <v>26</v>
       </c>
       <c r="S3" s="26" t="s">
@@ -964,80 +1047,86 @@
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P4" s="27"/>
       <c r="Q4" s="27"/>
-      <c r="R4" s="25"/>
+      <c r="R4" s="27"/>
       <c r="S4" s="27"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22">
+        <v>2</v>
+      </c>
+      <c r="R5" s="22">
+        <v>40</v>
+      </c>
+      <c r="S5" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="P6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q6" s="22">
+        <v>4</v>
+      </c>
+      <c r="R6" s="22">
+        <v>40</v>
+      </c>
+      <c r="S6" s="22">
         <v>2</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="P6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>4</v>
-      </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1055,18 +1144,2453 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="P7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="9">
+      <c r="P7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="22">
         <v>4</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="6"/>
+      <c r="R7" s="22">
+        <v>40</v>
+      </c>
+      <c r="S7" s="22">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="P8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>2</v>
+      </c>
+      <c r="R8" s="22">
+        <v>40</v>
+      </c>
+      <c r="S8" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="P9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>4</v>
+      </c>
+      <c r="R9" s="22">
+        <v>40</v>
+      </c>
+      <c r="S9" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="P10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>2</v>
+      </c>
+      <c r="R10" s="22">
+        <v>40</v>
+      </c>
+      <c r="S10" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="P11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>4</v>
+      </c>
+      <c r="R11" s="22">
+        <v>40</v>
+      </c>
+      <c r="S11" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="P12" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>4</v>
+      </c>
+      <c r="R12" s="22">
+        <v>40</v>
+      </c>
+      <c r="S12" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="P13" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>3</v>
+      </c>
+      <c r="R13" s="22">
+        <v>40</v>
+      </c>
+      <c r="S13" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="P14" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>4</v>
+      </c>
+      <c r="R14" s="22">
+        <v>40</v>
+      </c>
+      <c r="S14" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="P15" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>2</v>
+      </c>
+      <c r="R15" s="22">
+        <v>40</v>
+      </c>
+      <c r="S15" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="P16" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>2</v>
+      </c>
+      <c r="R16" s="22">
+        <v>40</v>
+      </c>
+      <c r="S16" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P17" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>4</v>
+      </c>
+      <c r="R17" s="22">
+        <v>40</v>
+      </c>
+      <c r="S17" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P18" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>2</v>
+      </c>
+      <c r="R18" s="22">
+        <v>40</v>
+      </c>
+      <c r="S18" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P19" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>4</v>
+      </c>
+      <c r="R19" s="22">
+        <v>40</v>
+      </c>
+      <c r="S19" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>3</v>
+      </c>
+      <c r="R20" s="22">
+        <v>40</v>
+      </c>
+      <c r="S20" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P21" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q21" s="22">
+        <v>2</v>
+      </c>
+      <c r="R21" s="22">
+        <v>40</v>
+      </c>
+      <c r="S21" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P22" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" s="22">
+        <v>3</v>
+      </c>
+      <c r="R22" s="22">
+        <v>40</v>
+      </c>
+      <c r="S22" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P23" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="22">
+        <v>3</v>
+      </c>
+      <c r="R23" s="22">
+        <v>40</v>
+      </c>
+      <c r="S23" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P24" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>4</v>
+      </c>
+      <c r="R24" s="22">
+        <v>40</v>
+      </c>
+      <c r="S24" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P25" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25" s="22">
+        <v>4</v>
+      </c>
+      <c r="R25" s="22">
+        <v>40</v>
+      </c>
+      <c r="S25" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P26" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q26" s="22">
+        <v>2</v>
+      </c>
+      <c r="R26" s="22">
+        <v>30</v>
+      </c>
+      <c r="S26" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P27" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q27" s="22">
+        <v>4</v>
+      </c>
+      <c r="R27" s="22">
+        <v>30</v>
+      </c>
+      <c r="S27" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P28" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q28" s="22">
+        <v>2</v>
+      </c>
+      <c r="R28" s="22">
+        <v>40</v>
+      </c>
+      <c r="S28" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P29" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q29" s="22">
+        <v>4</v>
+      </c>
+      <c r="R29" s="22">
+        <v>30</v>
+      </c>
+      <c r="S29" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P30" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q30" s="22">
+        <v>3</v>
+      </c>
+      <c r="R30" s="22">
+        <v>30</v>
+      </c>
+      <c r="S30" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P31" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q31" s="22">
+        <v>2</v>
+      </c>
+      <c r="R31" s="22">
+        <v>35</v>
+      </c>
+      <c r="S31" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P32" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="22">
+        <v>2</v>
+      </c>
+      <c r="R32" s="22">
+        <v>40</v>
+      </c>
+      <c r="S32" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P33" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q33" s="22">
+        <v>2</v>
+      </c>
+      <c r="R33" s="22">
+        <v>40</v>
+      </c>
+      <c r="S33" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P34" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q34" s="22">
+        <v>2</v>
+      </c>
+      <c r="R34" s="22">
+        <v>40</v>
+      </c>
+      <c r="S34" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P35" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q35" s="22">
+        <v>2</v>
+      </c>
+      <c r="R35" s="22">
+        <v>40</v>
+      </c>
+      <c r="S35" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P36" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q36" s="22">
+        <v>4</v>
+      </c>
+      <c r="R36" s="22">
+        <v>40</v>
+      </c>
+      <c r="S36" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P37" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q37" s="22">
+        <v>4</v>
+      </c>
+      <c r="R37" s="22">
+        <v>40</v>
+      </c>
+      <c r="S37" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P38" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q38" s="22">
+        <v>4</v>
+      </c>
+      <c r="R38" s="22">
+        <v>40</v>
+      </c>
+      <c r="S38" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P39" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q39" s="22">
+        <v>3</v>
+      </c>
+      <c r="R39" s="22">
+        <v>30</v>
+      </c>
+      <c r="S39" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P40" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q40" s="22">
+        <v>3</v>
+      </c>
+      <c r="R40" s="22">
+        <v>35</v>
+      </c>
+      <c r="S40" s="22">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P41" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q41" s="22">
+        <v>6</v>
+      </c>
+      <c r="R41" s="22">
+        <v>30</v>
+      </c>
+      <c r="S41" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P42" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q42" s="22">
+        <v>2</v>
+      </c>
+      <c r="R42" s="22">
+        <v>30</v>
+      </c>
+      <c r="S42" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P43" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q43" s="22">
+        <v>3</v>
+      </c>
+      <c r="R43" s="22">
+        <v>20</v>
+      </c>
+      <c r="S43" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P44" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q44" s="22">
+        <v>6</v>
+      </c>
+      <c r="R44" s="22">
+        <v>40</v>
+      </c>
+      <c r="S44" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P45" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q45" s="22">
+        <v>6</v>
+      </c>
+      <c r="R45" s="22">
+        <v>25</v>
+      </c>
+      <c r="S45" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P46" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q46" s="22">
+        <v>6</v>
+      </c>
+      <c r="R46" s="22">
+        <v>25</v>
+      </c>
+      <c r="S46" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P47" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q47" s="22">
+        <v>3</v>
+      </c>
+      <c r="R47" s="22">
+        <v>30</v>
+      </c>
+      <c r="S47" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P48" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q48" s="22">
+        <v>3</v>
+      </c>
+      <c r="R48" s="22">
+        <v>20</v>
+      </c>
+      <c r="S48" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P49" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q49" s="22">
+        <v>3</v>
+      </c>
+      <c r="R49" s="22">
+        <v>35</v>
+      </c>
+      <c r="S49" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P50" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q50" s="22">
+        <v>3</v>
+      </c>
+      <c r="R50" s="22">
+        <v>30</v>
+      </c>
+      <c r="S50" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P51" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q51" s="22">
+        <v>2</v>
+      </c>
+      <c r="R51" s="22">
+        <v>30</v>
+      </c>
+      <c r="S51" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P52" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q52" s="22">
+        <v>4</v>
+      </c>
+      <c r="R52" s="22">
+        <v>30</v>
+      </c>
+      <c r="S52" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P53" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q53" s="22">
+        <v>2</v>
+      </c>
+      <c r="R53" s="22">
+        <v>30</v>
+      </c>
+      <c r="S53" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P54" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q54" s="22">
+        <v>3</v>
+      </c>
+      <c r="R54" s="22">
+        <v>20</v>
+      </c>
+      <c r="S54" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P55" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q55" s="22">
+        <v>5</v>
+      </c>
+      <c r="R55" s="22">
+        <v>30</v>
+      </c>
+      <c r="S55" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P56" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q56" s="22">
+        <v>5</v>
+      </c>
+      <c r="R56" s="22">
+        <v>30</v>
+      </c>
+      <c r="S56" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P57" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q57" s="22">
+        <v>2</v>
+      </c>
+      <c r="R57" s="22">
+        <v>40</v>
+      </c>
+      <c r="S57" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P58" s="23"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="23"/>
+      <c r="S58" s="23"/>
+    </row>
+    <row r="59" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="23"/>
+      <c r="S59" s="23"/>
+    </row>
+    <row r="60" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="23"/>
+      <c r="S60" s="23"/>
+    </row>
+    <row r="61" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="23"/>
+      <c r="S61" s="23"/>
+    </row>
+    <row r="62" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="23"/>
+    </row>
+    <row r="63" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="23"/>
+    </row>
+    <row r="64" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="23"/>
+    </row>
+    <row r="65" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P65" s="23"/>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="23"/>
+      <c r="S65" s="23"/>
+    </row>
+    <row r="66" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+    </row>
+    <row r="67" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="23"/>
+    </row>
+    <row r="68" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P68" s="23"/>
+      <c r="Q68" s="23"/>
+      <c r="R68" s="23"/>
+      <c r="S68" s="23"/>
+    </row>
+    <row r="69" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P69" s="23"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="23"/>
+      <c r="S69" s="23"/>
+    </row>
+    <row r="70" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P70" s="23"/>
+      <c r="Q70" s="23"/>
+      <c r="R70" s="23"/>
+      <c r="S70" s="23"/>
+    </row>
+    <row r="71" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P71" s="23"/>
+      <c r="Q71" s="23"/>
+      <c r="R71" s="23"/>
+      <c r="S71" s="23"/>
+    </row>
+    <row r="72" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P72" s="23"/>
+      <c r="Q72" s="23"/>
+      <c r="R72" s="23"/>
+      <c r="S72" s="23"/>
+    </row>
+    <row r="73" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P73" s="23"/>
+      <c r="Q73" s="23"/>
+      <c r="R73" s="23"/>
+      <c r="S73" s="23"/>
+    </row>
+    <row r="74" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="23"/>
+    </row>
+    <row r="75" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P75" s="23"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="23"/>
+      <c r="S75" s="23"/>
+    </row>
+    <row r="76" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P76" s="23"/>
+      <c r="Q76" s="23"/>
+      <c r="R76" s="23"/>
+      <c r="S76" s="23"/>
+    </row>
+    <row r="77" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="23"/>
+      <c r="S77" s="23"/>
+    </row>
+    <row r="78" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P78" s="23"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="23"/>
+      <c r="S78" s="23"/>
+    </row>
+    <row r="79" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P79" s="23"/>
+      <c r="Q79" s="23"/>
+      <c r="R79" s="23"/>
+      <c r="S79" s="23"/>
+    </row>
+    <row r="80" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P80" s="23"/>
+      <c r="Q80" s="23"/>
+      <c r="R80" s="23"/>
+      <c r="S80" s="23"/>
+    </row>
+    <row r="81" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P81" s="23"/>
+      <c r="Q81" s="23"/>
+      <c r="R81" s="23"/>
+      <c r="S81" s="23"/>
+    </row>
+    <row r="82" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P82" s="23"/>
+      <c r="Q82" s="23"/>
+      <c r="R82" s="23"/>
+      <c r="S82" s="23"/>
+    </row>
+    <row r="83" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P83" s="23"/>
+      <c r="Q83" s="23"/>
+      <c r="R83" s="23"/>
+      <c r="S83" s="23"/>
+    </row>
+    <row r="84" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P84" s="23"/>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="23"/>
+      <c r="S84" s="23"/>
+    </row>
+    <row r="85" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P85" s="23"/>
+      <c r="Q85" s="23"/>
+      <c r="R85" s="23"/>
+      <c r="S85" s="23"/>
+    </row>
+    <row r="86" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P86" s="23"/>
+      <c r="Q86" s="23"/>
+      <c r="R86" s="23"/>
+      <c r="S86" s="23"/>
+    </row>
+    <row r="87" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P87" s="23"/>
+      <c r="Q87" s="23"/>
+      <c r="R87" s="23"/>
+      <c r="S87" s="23"/>
+    </row>
+    <row r="88" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P88" s="23"/>
+      <c r="Q88" s="23"/>
+      <c r="R88" s="23"/>
+      <c r="S88" s="23"/>
+    </row>
+    <row r="89" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P89" s="23"/>
+      <c r="Q89" s="23"/>
+      <c r="R89" s="23"/>
+      <c r="S89" s="23"/>
+    </row>
+    <row r="90" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P90" s="23"/>
+      <c r="Q90" s="23"/>
+      <c r="R90" s="23"/>
+      <c r="S90" s="23"/>
+    </row>
+    <row r="91" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P91" s="23"/>
+      <c r="Q91" s="23"/>
+      <c r="R91" s="23"/>
+      <c r="S91" s="23"/>
+    </row>
+    <row r="92" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P92" s="23"/>
+      <c r="Q92" s="23"/>
+      <c r="R92" s="23"/>
+      <c r="S92" s="23"/>
+    </row>
+    <row r="93" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P93" s="23"/>
+      <c r="Q93" s="23"/>
+      <c r="R93" s="23"/>
+      <c r="S93" s="23"/>
+    </row>
+    <row r="94" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P94" s="23"/>
+      <c r="Q94" s="23"/>
+      <c r="R94" s="23"/>
+      <c r="S94" s="23"/>
+    </row>
+    <row r="95" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P95" s="23"/>
+      <c r="Q95" s="23"/>
+      <c r="R95" s="23"/>
+      <c r="S95" s="23"/>
+    </row>
+    <row r="96" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P96" s="23"/>
+      <c r="Q96" s="23"/>
+      <c r="R96" s="23"/>
+      <c r="S96" s="23"/>
+    </row>
+    <row r="97" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P97" s="23"/>
+      <c r="Q97" s="23"/>
+      <c r="R97" s="23"/>
+      <c r="S97" s="23"/>
+    </row>
+    <row r="98" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P98" s="23"/>
+      <c r="Q98" s="23"/>
+      <c r="R98" s="23"/>
+      <c r="S98" s="23"/>
+    </row>
+    <row r="99" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P99" s="23"/>
+      <c r="Q99" s="23"/>
+      <c r="R99" s="23"/>
+      <c r="S99" s="23"/>
+    </row>
+    <row r="100" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P100" s="23"/>
+      <c r="Q100" s="23"/>
+      <c r="R100" s="23"/>
+      <c r="S100" s="23"/>
+    </row>
+    <row r="101" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P101" s="23"/>
+      <c r="Q101" s="23"/>
+      <c r="R101" s="23"/>
+      <c r="S101" s="23"/>
+    </row>
+    <row r="102" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P102" s="23"/>
+      <c r="Q102" s="23"/>
+      <c r="R102" s="23"/>
+      <c r="S102" s="23"/>
+    </row>
+    <row r="103" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P103" s="23"/>
+      <c r="Q103" s="23"/>
+      <c r="R103" s="23"/>
+      <c r="S103" s="23"/>
+    </row>
+    <row r="104" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P104" s="23"/>
+      <c r="Q104" s="23"/>
+      <c r="R104" s="23"/>
+      <c r="S104" s="23"/>
+    </row>
+    <row r="105" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P105" s="23"/>
+      <c r="Q105" s="23"/>
+      <c r="R105" s="23"/>
+      <c r="S105" s="23"/>
+    </row>
+    <row r="106" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P106" s="23"/>
+      <c r="Q106" s="23"/>
+      <c r="R106" s="23"/>
+      <c r="S106" s="23"/>
+    </row>
+    <row r="107" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P107" s="23"/>
+      <c r="Q107" s="23"/>
+      <c r="R107" s="23"/>
+      <c r="S107" s="23"/>
+    </row>
+    <row r="108" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P108" s="23"/>
+      <c r="Q108" s="23"/>
+      <c r="R108" s="23"/>
+      <c r="S108" s="23"/>
+    </row>
+    <row r="109" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P109" s="23"/>
+      <c r="Q109" s="23"/>
+      <c r="R109" s="23"/>
+      <c r="S109" s="23"/>
+    </row>
+    <row r="110" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P110" s="23"/>
+      <c r="Q110" s="23"/>
+      <c r="R110" s="23"/>
+      <c r="S110" s="23"/>
+    </row>
+    <row r="111" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P111" s="23"/>
+      <c r="Q111" s="23"/>
+      <c r="R111" s="23"/>
+      <c r="S111" s="23"/>
+    </row>
+    <row r="112" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P112" s="23"/>
+      <c r="Q112" s="23"/>
+      <c r="R112" s="23"/>
+      <c r="S112" s="23"/>
+    </row>
+    <row r="113" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P113" s="23"/>
+      <c r="Q113" s="23"/>
+      <c r="R113" s="23"/>
+      <c r="S113" s="23"/>
+    </row>
+    <row r="114" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P114" s="23"/>
+      <c r="Q114" s="23"/>
+      <c r="R114" s="23"/>
+      <c r="S114" s="23"/>
+    </row>
+    <row r="115" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P115" s="23"/>
+      <c r="Q115" s="23"/>
+      <c r="R115" s="23"/>
+      <c r="S115" s="23"/>
+    </row>
+    <row r="116" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P116" s="23"/>
+      <c r="Q116" s="23"/>
+      <c r="R116" s="23"/>
+      <c r="S116" s="23"/>
+    </row>
+    <row r="117" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P117" s="23"/>
+      <c r="Q117" s="23"/>
+      <c r="R117" s="23"/>
+      <c r="S117" s="23"/>
+    </row>
+    <row r="118" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P118" s="23"/>
+      <c r="Q118" s="23"/>
+      <c r="R118" s="23"/>
+      <c r="S118" s="23"/>
+    </row>
+    <row r="119" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P119" s="23"/>
+      <c r="Q119" s="23"/>
+      <c r="R119" s="23"/>
+      <c r="S119" s="23"/>
+    </row>
+    <row r="120" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P120" s="23"/>
+      <c r="Q120" s="23"/>
+      <c r="R120" s="23"/>
+      <c r="S120" s="23"/>
+    </row>
+    <row r="121" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P121" s="23"/>
+      <c r="Q121" s="23"/>
+      <c r="R121" s="23"/>
+      <c r="S121" s="23"/>
+    </row>
+    <row r="122" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P122" s="23"/>
+      <c r="Q122" s="23"/>
+      <c r="R122" s="23"/>
+      <c r="S122" s="23"/>
+    </row>
+    <row r="123" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P123" s="23"/>
+      <c r="Q123" s="23"/>
+      <c r="R123" s="23"/>
+      <c r="S123" s="23"/>
+    </row>
+    <row r="124" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P124" s="23"/>
+      <c r="Q124" s="23"/>
+      <c r="R124" s="23"/>
+      <c r="S124" s="23"/>
+    </row>
+    <row r="125" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P125" s="23"/>
+      <c r="Q125" s="23"/>
+      <c r="R125" s="23"/>
+      <c r="S125" s="23"/>
+    </row>
+    <row r="126" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P126" s="23"/>
+      <c r="Q126" s="23"/>
+      <c r="R126" s="23"/>
+      <c r="S126" s="23"/>
+    </row>
+    <row r="127" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P127" s="23"/>
+      <c r="Q127" s="23"/>
+      <c r="R127" s="23"/>
+      <c r="S127" s="23"/>
+    </row>
+    <row r="128" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P128" s="23"/>
+      <c r="Q128" s="23"/>
+      <c r="R128" s="23"/>
+      <c r="S128" s="23"/>
+    </row>
+    <row r="129" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P129" s="23"/>
+      <c r="Q129" s="23"/>
+      <c r="R129" s="23"/>
+      <c r="S129" s="23"/>
+    </row>
+    <row r="130" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P130" s="23"/>
+      <c r="Q130" s="23"/>
+      <c r="R130" s="23"/>
+      <c r="S130" s="23"/>
+    </row>
+    <row r="131" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P131" s="23"/>
+      <c r="Q131" s="23"/>
+      <c r="R131" s="23"/>
+      <c r="S131" s="23"/>
+    </row>
+    <row r="132" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P132" s="23"/>
+      <c r="Q132" s="23"/>
+      <c r="R132" s="23"/>
+      <c r="S132" s="23"/>
+    </row>
+    <row r="133" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P133" s="23"/>
+      <c r="Q133" s="23"/>
+      <c r="R133" s="23"/>
+      <c r="S133" s="23"/>
+    </row>
+    <row r="134" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P134" s="23"/>
+      <c r="Q134" s="23"/>
+      <c r="R134" s="23"/>
+      <c r="S134" s="23"/>
+    </row>
+    <row r="135" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P135" s="23"/>
+      <c r="Q135" s="23"/>
+      <c r="R135" s="23"/>
+      <c r="S135" s="23"/>
+    </row>
+    <row r="136" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P136" s="23"/>
+      <c r="Q136" s="23"/>
+      <c r="R136" s="23"/>
+      <c r="S136" s="23"/>
+    </row>
+    <row r="137" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P137" s="23"/>
+      <c r="Q137" s="23"/>
+      <c r="R137" s="23"/>
+      <c r="S137" s="23"/>
+    </row>
+    <row r="138" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P138" s="23"/>
+      <c r="Q138" s="23"/>
+      <c r="R138" s="23"/>
+      <c r="S138" s="23"/>
+    </row>
+    <row r="139" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P139" s="23"/>
+      <c r="Q139" s="23"/>
+      <c r="R139" s="23"/>
+      <c r="S139" s="23"/>
+    </row>
+    <row r="140" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P140" s="23"/>
+      <c r="Q140" s="23"/>
+      <c r="R140" s="23"/>
+      <c r="S140" s="23"/>
+    </row>
+    <row r="141" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P141" s="23"/>
+      <c r="Q141" s="23"/>
+      <c r="R141" s="23"/>
+      <c r="S141" s="23"/>
+    </row>
+    <row r="142" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P142" s="23"/>
+      <c r="Q142" s="23"/>
+      <c r="R142" s="23"/>
+      <c r="S142" s="23"/>
+    </row>
+    <row r="143" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P143" s="23"/>
+      <c r="Q143" s="23"/>
+      <c r="R143" s="23"/>
+      <c r="S143" s="23"/>
+    </row>
+    <row r="144" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P144" s="23"/>
+      <c r="Q144" s="23"/>
+      <c r="R144" s="23"/>
+      <c r="S144" s="23"/>
+    </row>
+    <row r="145" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P145" s="23"/>
+      <c r="Q145" s="23"/>
+      <c r="R145" s="23"/>
+      <c r="S145" s="23"/>
+    </row>
+    <row r="146" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P146" s="23"/>
+      <c r="Q146" s="23"/>
+      <c r="R146" s="23"/>
+      <c r="S146" s="23"/>
+    </row>
+    <row r="147" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P147" s="23"/>
+      <c r="Q147" s="23"/>
+      <c r="R147" s="23"/>
+      <c r="S147" s="23"/>
+    </row>
+    <row r="148" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P148" s="23"/>
+      <c r="Q148" s="23"/>
+      <c r="R148" s="23"/>
+      <c r="S148" s="23"/>
+    </row>
+    <row r="149" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P149" s="23"/>
+      <c r="Q149" s="23"/>
+      <c r="R149" s="23"/>
+      <c r="S149" s="23"/>
+    </row>
+    <row r="150" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P150" s="23"/>
+      <c r="Q150" s="23"/>
+      <c r="R150" s="23"/>
+      <c r="S150" s="23"/>
+    </row>
+    <row r="151" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P151" s="23"/>
+      <c r="Q151" s="23"/>
+      <c r="R151" s="23"/>
+      <c r="S151" s="23"/>
+    </row>
+    <row r="152" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P152" s="23"/>
+      <c r="Q152" s="23"/>
+      <c r="R152" s="23"/>
+      <c r="S152" s="23"/>
+    </row>
+    <row r="153" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P153" s="23"/>
+      <c r="Q153" s="23"/>
+      <c r="R153" s="23"/>
+      <c r="S153" s="23"/>
+    </row>
+    <row r="154" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P154" s="23"/>
+      <c r="Q154" s="23"/>
+      <c r="R154" s="23"/>
+      <c r="S154" s="23"/>
+    </row>
+    <row r="155" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P155" s="23"/>
+      <c r="Q155" s="23"/>
+      <c r="R155" s="23"/>
+      <c r="S155" s="23"/>
+    </row>
+    <row r="156" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P156" s="23"/>
+      <c r="Q156" s="23"/>
+      <c r="R156" s="23"/>
+      <c r="S156" s="23"/>
+    </row>
+    <row r="157" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P157" s="23"/>
+      <c r="Q157" s="23"/>
+      <c r="R157" s="23"/>
+      <c r="S157" s="23"/>
+    </row>
+    <row r="158" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P158" s="23"/>
+      <c r="Q158" s="23"/>
+      <c r="R158" s="23"/>
+      <c r="S158" s="23"/>
+    </row>
+    <row r="159" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P159" s="23"/>
+      <c r="Q159" s="23"/>
+      <c r="R159" s="23"/>
+      <c r="S159" s="23"/>
+    </row>
+    <row r="160" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P160" s="23"/>
+      <c r="Q160" s="23"/>
+      <c r="R160" s="23"/>
+      <c r="S160" s="23"/>
+    </row>
+    <row r="161" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P161" s="23"/>
+      <c r="Q161" s="23"/>
+      <c r="R161" s="23"/>
+      <c r="S161" s="23"/>
+    </row>
+    <row r="162" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P162" s="23"/>
+      <c r="Q162" s="23"/>
+      <c r="R162" s="23"/>
+      <c r="S162" s="23"/>
+    </row>
+    <row r="163" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P163" s="23"/>
+      <c r="Q163" s="23"/>
+      <c r="R163" s="23"/>
+      <c r="S163" s="23"/>
+    </row>
+    <row r="164" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P164" s="23"/>
+      <c r="Q164" s="23"/>
+      <c r="R164" s="23"/>
+      <c r="S164" s="23"/>
+    </row>
+    <row r="165" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P165" s="23"/>
+      <c r="Q165" s="23"/>
+      <c r="R165" s="23"/>
+      <c r="S165" s="23"/>
+    </row>
+    <row r="166" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P166" s="23"/>
+      <c r="Q166" s="23"/>
+      <c r="R166" s="23"/>
+      <c r="S166" s="23"/>
+    </row>
+    <row r="167" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P167" s="23"/>
+      <c r="Q167" s="23"/>
+      <c r="R167" s="23"/>
+      <c r="S167" s="23"/>
+    </row>
+    <row r="168" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P168" s="23"/>
+      <c r="Q168" s="23"/>
+      <c r="R168" s="23"/>
+      <c r="S168" s="23"/>
+    </row>
+    <row r="169" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P169" s="23"/>
+      <c r="Q169" s="23"/>
+      <c r="R169" s="23"/>
+      <c r="S169" s="23"/>
+    </row>
+    <row r="170" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P170" s="23"/>
+      <c r="Q170" s="23"/>
+      <c r="R170" s="23"/>
+      <c r="S170" s="23"/>
+    </row>
+    <row r="171" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P171" s="23"/>
+      <c r="Q171" s="23"/>
+      <c r="R171" s="23"/>
+      <c r="S171" s="23"/>
+    </row>
+    <row r="172" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P172" s="23"/>
+      <c r="Q172" s="23"/>
+      <c r="R172" s="23"/>
+      <c r="S172" s="23"/>
+    </row>
+    <row r="173" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P173" s="23"/>
+      <c r="Q173" s="23"/>
+      <c r="R173" s="23"/>
+      <c r="S173" s="23"/>
+    </row>
+    <row r="174" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P174" s="23"/>
+      <c r="Q174" s="23"/>
+      <c r="R174" s="23"/>
+      <c r="S174" s="23"/>
+    </row>
+    <row r="175" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P175" s="23"/>
+      <c r="Q175" s="23"/>
+      <c r="R175" s="23"/>
+      <c r="S175" s="23"/>
+    </row>
+    <row r="176" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P176" s="23"/>
+      <c r="Q176" s="23"/>
+      <c r="R176" s="23"/>
+      <c r="S176" s="23"/>
+    </row>
+    <row r="177" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P177" s="23"/>
+      <c r="Q177" s="23"/>
+      <c r="R177" s="23"/>
+      <c r="S177" s="23"/>
+    </row>
+    <row r="178" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P178" s="23"/>
+      <c r="Q178" s="23"/>
+      <c r="R178" s="23"/>
+      <c r="S178" s="23"/>
+    </row>
+    <row r="179" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P179" s="23"/>
+      <c r="Q179" s="23"/>
+      <c r="R179" s="23"/>
+      <c r="S179" s="23"/>
+    </row>
+    <row r="180" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P180" s="23"/>
+      <c r="Q180" s="23"/>
+      <c r="R180" s="23"/>
+      <c r="S180" s="23"/>
+    </row>
+    <row r="181" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P181" s="23"/>
+      <c r="Q181" s="23"/>
+      <c r="R181" s="23"/>
+      <c r="S181" s="23"/>
+    </row>
+    <row r="182" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P182" s="23"/>
+      <c r="Q182" s="23"/>
+      <c r="R182" s="23"/>
+      <c r="S182" s="23"/>
+    </row>
+    <row r="183" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P183" s="23"/>
+      <c r="Q183" s="23"/>
+      <c r="R183" s="23"/>
+      <c r="S183" s="23"/>
+    </row>
+    <row r="184" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P184" s="23"/>
+      <c r="Q184" s="23"/>
+      <c r="R184" s="23"/>
+      <c r="S184" s="23"/>
+    </row>
+    <row r="185" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P185" s="23"/>
+      <c r="Q185" s="23"/>
+      <c r="R185" s="23"/>
+      <c r="S185" s="23"/>
+    </row>
+    <row r="186" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P186" s="23"/>
+      <c r="Q186" s="23"/>
+      <c r="R186" s="23"/>
+      <c r="S186" s="23"/>
+    </row>
+    <row r="187" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P187" s="23"/>
+      <c r="Q187" s="23"/>
+      <c r="R187" s="23"/>
+      <c r="S187" s="23"/>
+    </row>
+    <row r="188" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P188" s="23"/>
+      <c r="Q188" s="23"/>
+      <c r="R188" s="23"/>
+      <c r="S188" s="23"/>
+    </row>
+    <row r="189" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P189" s="23"/>
+      <c r="Q189" s="23"/>
+      <c r="R189" s="23"/>
+      <c r="S189" s="23"/>
+    </row>
+    <row r="190" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P190" s="23"/>
+      <c r="Q190" s="23"/>
+      <c r="R190" s="23"/>
+      <c r="S190" s="23"/>
+    </row>
+    <row r="191" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P191" s="23"/>
+      <c r="Q191" s="23"/>
+      <c r="R191" s="23"/>
+      <c r="S191" s="23"/>
+    </row>
+    <row r="192" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P192" s="23"/>
+      <c r="Q192" s="23"/>
+      <c r="R192" s="23"/>
+      <c r="S192" s="23"/>
+    </row>
+    <row r="193" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P193" s="23"/>
+      <c r="Q193" s="23"/>
+      <c r="R193" s="23"/>
+      <c r="S193" s="23"/>
+    </row>
+    <row r="194" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P194" s="23"/>
+      <c r="Q194" s="23"/>
+      <c r="R194" s="23"/>
+      <c r="S194" s="23"/>
+    </row>
+    <row r="195" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P195" s="23"/>
+      <c r="Q195" s="23"/>
+      <c r="R195" s="23"/>
+      <c r="S195" s="23"/>
+    </row>
+    <row r="196" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P196" s="23"/>
+      <c r="Q196" s="23"/>
+      <c r="R196" s="23"/>
+      <c r="S196" s="23"/>
+    </row>
+    <row r="197" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P197" s="23"/>
+      <c r="Q197" s="23"/>
+      <c r="R197" s="23"/>
+      <c r="S197" s="23"/>
+    </row>
+    <row r="198" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P198" s="23"/>
+      <c r="Q198" s="23"/>
+      <c r="R198" s="23"/>
+      <c r="S198" s="23"/>
+    </row>
+    <row r="199" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P199" s="23"/>
+      <c r="Q199" s="23"/>
+      <c r="R199" s="23"/>
+      <c r="S199" s="23"/>
+    </row>
+    <row r="200" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P200" s="23"/>
+      <c r="Q200" s="23"/>
+      <c r="R200" s="23"/>
+      <c r="S200" s="23"/>
+    </row>
+    <row r="201" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P201" s="23"/>
+      <c r="Q201" s="23"/>
+      <c r="R201" s="23"/>
+      <c r="S201" s="23"/>
+    </row>
+    <row r="202" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P202" s="23"/>
+      <c r="Q202" s="23"/>
+      <c r="R202" s="23"/>
+      <c r="S202" s="23"/>
+    </row>
+    <row r="203" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P203" s="23"/>
+      <c r="Q203" s="23"/>
+      <c r="R203" s="23"/>
+      <c r="S203" s="23"/>
+    </row>
+    <row r="204" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P204" s="23"/>
+      <c r="Q204" s="23"/>
+      <c r="R204" s="23"/>
+      <c r="S204" s="23"/>
+    </row>
+    <row r="205" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P205" s="23"/>
+      <c r="Q205" s="23"/>
+      <c r="R205" s="23"/>
+      <c r="S205" s="23"/>
+    </row>
+    <row r="206" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P206" s="23"/>
+      <c r="Q206" s="23"/>
+      <c r="R206" s="23"/>
+      <c r="S206" s="23"/>
+    </row>
+    <row r="207" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P207" s="23"/>
+      <c r="Q207" s="23"/>
+      <c r="R207" s="23"/>
+      <c r="S207" s="23"/>
+    </row>
+    <row r="208" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P208" s="23"/>
+      <c r="Q208" s="23"/>
+      <c r="R208" s="23"/>
+      <c r="S208" s="23"/>
+    </row>
+    <row r="209" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P209" s="23"/>
+      <c r="Q209" s="23"/>
+      <c r="R209" s="23"/>
+      <c r="S209" s="23"/>
+    </row>
+    <row r="210" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P210" s="23"/>
+      <c r="Q210" s="23"/>
+      <c r="R210" s="23"/>
+      <c r="S210" s="23"/>
+    </row>
+    <row r="211" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P211" s="23"/>
+      <c r="Q211" s="23"/>
+      <c r="R211" s="23"/>
+      <c r="S211" s="23"/>
+    </row>
+    <row r="212" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P212" s="23"/>
+      <c r="Q212" s="23"/>
+      <c r="R212" s="23"/>
+      <c r="S212" s="23"/>
+    </row>
+    <row r="213" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P213" s="23"/>
+      <c r="Q213" s="23"/>
+      <c r="R213" s="23"/>
+      <c r="S213" s="23"/>
+    </row>
+    <row r="214" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P214" s="23"/>
+      <c r="Q214" s="23"/>
+      <c r="R214" s="23"/>
+      <c r="S214" s="23"/>
+    </row>
+    <row r="215" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P215" s="23"/>
+      <c r="Q215" s="23"/>
+      <c r="R215" s="23"/>
+      <c r="S215" s="23"/>
+    </row>
+    <row r="216" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P216" s="23"/>
+      <c r="Q216" s="23"/>
+      <c r="R216" s="23"/>
+      <c r="S216" s="23"/>
+    </row>
+    <row r="217" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P217" s="23"/>
+      <c r="Q217" s="23"/>
+      <c r="R217" s="23"/>
+      <c r="S217" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="P3:P4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A3:T21"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="O6" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="22">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>30</v>
+      </c>
+      <c r="R6" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="O7" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>10</v>
+      </c>
+      <c r="R7" s="23">
+        <v>1</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="T7" s="23"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="O8" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>30</v>
+      </c>
+      <c r="R8" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="O9" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="22">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>30</v>
+      </c>
+      <c r="R9" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="O10" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" s="22">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>30</v>
+      </c>
+      <c r="R10" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="23"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="23"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:S21"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="25"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="P6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>3</v>
+      </c>
+      <c r="R6" s="22">
+        <v>40</v>
+      </c>
+      <c r="S6" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="P7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>3</v>
+      </c>
+      <c r="R7" s="22">
+        <v>40</v>
+      </c>
+      <c r="S7" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1081,17 +3605,21 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="P8" s="9" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="9">
         <v>2</v>
       </c>
-      <c r="R8" s="12"/>
-      <c r="S8" s="6"/>
+      <c r="R8" s="22">
+        <v>40</v>
+      </c>
+      <c r="S8" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1106,17 +3634,21 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="P9" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="9">
-        <v>4</v>
-      </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="R9" s="22">
+        <v>40</v>
+      </c>
+      <c r="S9" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1131,17 +3663,21 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="P10" s="9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="9">
-        <v>2</v>
-      </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="R10" s="22">
+        <v>40</v>
+      </c>
+      <c r="S10" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1155,14 +3691,22 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="7"/>
+      <c r="P11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>4</v>
+      </c>
+      <c r="R11" s="22">
+        <v>40</v>
+      </c>
+      <c r="S11" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1176,10 +3720,14 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="19"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1193,10 +3741,14 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1213,7 +3765,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1230,7 +3782,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1247,7 +3799,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1264,7 +3816,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1281,7 +3833,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1298,7 +3850,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1313,71 +3865,979 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C7EF15-3D56-4548-966A-D4C6D4BC0FE3}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="25"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="O6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>40</v>
+      </c>
+      <c r="R6" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="O7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>40</v>
+      </c>
+      <c r="R7" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="O8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>40</v>
+      </c>
+      <c r="R8" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="O9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>40</v>
+      </c>
+      <c r="R9" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="O10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>40</v>
+      </c>
+      <c r="R10" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A3:R21"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="25"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="O6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>40</v>
+      </c>
+      <c r="R6" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="O7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>40</v>
+      </c>
+      <c r="R7" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="O8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>40</v>
+      </c>
+      <c r="R8" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="O9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>40</v>
+      </c>
+      <c r="R9" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="O10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>40</v>
+      </c>
+      <c r="R10" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="O11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>40</v>
+      </c>
+      <c r="R11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A3:R21"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,76 +4852,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="27"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1480,13 +4940,17 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="O6" s="8" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="P6" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>40</v>
+      </c>
+      <c r="R6" s="5">
         <v>2</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1505,13 +4969,17 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="O7" s="9" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="P7" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>40</v>
+      </c>
+      <c r="R7" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1530,13 +4998,17 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="O8" s="9" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="P8" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>40</v>
+      </c>
+      <c r="R8" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1555,13 +5027,17 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="O9" s="9" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="P9" s="9">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>35</v>
+      </c>
+      <c r="R9" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1580,13 +5056,17 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="O10" s="9" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="P10" s="9">
         <v>2</v>
       </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
+      <c r="Q10" s="12">
+        <v>30</v>
+      </c>
+      <c r="R10" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1604,10 +5084,18 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
+      <c r="O11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>30</v>
+      </c>
+      <c r="R11" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -1786,454 +5274,6 @@
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21AB377-5475-4309-827B-E5C4DEE4CA98}">
-  <dimension ref="A3:S21"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="27"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="P6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>3</v>
-      </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="5"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="P7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>3</v>
-      </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="P8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>2</v>
-      </c>
-      <c r="R8" s="12"/>
-      <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="P9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>3</v>
-      </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="P10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>4</v>
-      </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="P11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>4</v>
-      </c>
-      <c r="R11" s="12"/>
-      <c r="S11" s="6"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="19"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -2245,540 +5285,106 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B34897-C3CC-413D-A044-78825B535787}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:R21"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="27"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="O7" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="O8" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="O9" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="O10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="19"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98090E5B-EC8F-4FB3-8BA2-B9CF7E7F622B}">
-  <dimension ref="A3:R21"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="27"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2797,13 +5403,17 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="O6" s="8" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="P6" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>30</v>
+      </c>
+      <c r="R6" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -2822,13 +5432,17 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="O7" s="9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="P7" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>30</v>
+      </c>
+      <c r="R7" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -2847,13 +5461,17 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="O8" s="9" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="P8" s="9">
         <v>2</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
+      <c r="Q8" s="17">
+        <v>30</v>
+      </c>
+      <c r="R8" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2872,13 +5490,17 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="O9" s="9" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="P9" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>30</v>
+      </c>
+      <c r="R9" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -2897,13 +5519,17 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="O10" s="9" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="P10" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>30</v>
+      </c>
+      <c r="R10" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2922,15 +5548,19 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="O11" s="9" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="P11" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>30</v>
+      </c>
+      <c r="R11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -2946,12 +5576,20 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="19"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>30</v>
+      </c>
+      <c r="R12" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -2967,10 +5605,6 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -3110,11 +5744,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -3127,101 +5756,106 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20AA679-064E-4D53-A849-351642C46016}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A3:R21"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="27"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3240,13 +5874,17 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="O6" s="8" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="P6" s="8">
         <v>3</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
+      <c r="Q6" s="11">
+        <v>30</v>
+      </c>
+      <c r="R6" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -3265,13 +5903,17 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="O7" s="9" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P7" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>30</v>
+      </c>
+      <c r="R7" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -3290,13 +5932,17 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="O8" s="9" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P8" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>30</v>
+      </c>
+      <c r="R8" s="6">
         <v>4</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -3315,13 +5961,17 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="O9" s="9" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P9" s="9">
         <v>2</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
+      <c r="Q9" s="12">
+        <v>30</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -3340,13 +5990,17 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="O10" s="9" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="P10" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>20</v>
+      </c>
+      <c r="R10" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -3365,13 +6019,17 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="O11" s="9" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="P11" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>30</v>
+      </c>
+      <c r="R11" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -3549,11 +6207,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -3566,103 +6219,108 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE898E07-6592-4066-911E-CF5F3C3D4840}">
-  <dimension ref="A3:R21"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A3:S21"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="27"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="25"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3679,15 +6337,19 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="O6" s="8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="P6" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>30</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -3704,15 +6366,19 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="O7" s="9" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="P7" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>30</v>
+      </c>
+      <c r="R7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -3729,15 +6395,22 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="O8" s="9" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="P8" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>10</v>
+      </c>
+      <c r="R8" s="6">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -3754,15 +6427,19 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="O9" s="9" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="P9" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>30</v>
+      </c>
+      <c r="R9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -3779,15 +6456,19 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="O10" s="9" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="P10" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>30</v>
+      </c>
+      <c r="R10" s="6">
         <v>4</v>
       </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -3804,458 +6485,19 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="O11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="P11" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="P12" s="10">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064AE008-59FD-4E5B-9BC0-E22A9BBCAEEE}">
-  <dimension ref="A3:R21"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="27"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="O7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="O8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" s="9">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="P9" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="O10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P11" s="9">
         <v>6</v>
       </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="12">
+        <v>30</v>
+      </c>
+      <c r="R11" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -4276,7 +6518,7 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -4293,7 +6535,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -4310,7 +6552,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -4327,7 +6569,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -4431,11 +6673,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -4448,103 +6685,112 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC99442-6ED8-4791-9340-3655DBBA79CB}">
-  <dimension ref="A3:R21"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A3:T21"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="27"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -4561,15 +6807,20 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="O6" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P6" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>30</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1</v>
+      </c>
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -4586,15 +6837,23 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="O7" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P7" s="9">
         <v>3</v>
       </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q7" s="12">
+        <v>10</v>
+      </c>
+      <c r="R7" s="6">
+        <v>1</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -4611,15 +6870,20 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="O8" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P8" s="9">
         <v>3</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q8" s="12">
+        <v>30</v>
+      </c>
+      <c r="R8" s="6">
+        <v>6</v>
+      </c>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -4636,15 +6900,20 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="O9" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P9" s="9">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>35</v>
+      </c>
+      <c r="R9" s="6">
+        <v>2</v>
+      </c>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -4661,15 +6930,20 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="O10" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P10" s="9">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>30</v>
+      </c>
+      <c r="R10" s="6">
+        <v>1</v>
+      </c>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -4686,464 +6960,20 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="O11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" s="9">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D77BECE-C5E5-4AC8-A998-3520FF4F3F8F}">
-  <dimension ref="A3:S21"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="P6" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="O7" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P7" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="O8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="P9" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="O10" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="P10" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="P11" s="9">
         <v>4</v>
       </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
+      <c r="Q11" s="12">
+        <v>30</v>
+      </c>
+      <c r="R11" s="6">
+        <v>1</v>
+      </c>
       <c r="S11" s="6"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -5165,7 +6995,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -5182,7 +7012,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -5199,7 +7029,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -5216,7 +7046,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -5320,6 +7150,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
@@ -5332,12 +7168,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
